--- a/imt_or/proj/InputDataEnergySmallInstance.xlsx
+++ b/imt_or/proj/InputDataEnergySmallInstance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SourceNum" sheetId="1" state="visible" r:id="rId2"/>
@@ -87,12 +87,11 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,16 +108,135 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -126,8 +244,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,6 +284,57 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -170,14 +354,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1531,7 +1792,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1595,10 +1856,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1613,6 +1874,10 @@
       <c r="B1" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="D1" s="0" t="n">
+        <f aca="false">SQRT((A2-A1)*(A2-A1)+(B2-B1)*(B2-B1))</f>
+        <v>14.142135623731</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1668,6 +1933,72 @@
       </c>
       <c r="B8" s="0" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2019,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1921,10 +2252,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="N39" activeCellId="0" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1934,209 +2265,233 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="D1" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="E1" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="F1" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="G1" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="H1" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="I1" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="C3" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="C4" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="C5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>18</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>24</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="I5" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>16</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="C7" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="C8" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2156,7 +2511,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2164,234 +2519,258 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
